--- a/Trabajo-Practico-1/SIM_2025_4K3_Laboratorio_TP1_Grupo12.xlsx
+++ b/Trabajo-Practico-1/SIM_2025_4K3_Laboratorio_TP1_Grupo12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molla\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frcutneduar-my.sharepoint.com/personal/90019_sistemas_frc_utn_edu_ar/Documents/UTN/QUINTO AÑO/SIM/Simulacion-G12/Trabajo-Practico-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFB4705-61A8-4656-8053-05A8D91186B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{1AFB4705-61A8-4656-8053-05A8D91186B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F65E4FD-AF10-4CB9-ADD1-E972CDA23351}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="441">
   <si>
     <t>Variable Aleatoria: Cantidad de memoria fisica usada por 204 procesos en una computadora de escritorio en la fecha 31/03/25</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Frec. Observ.</t>
-  </si>
-  <si>
-    <t>P() c/Pac</t>
   </si>
   <si>
     <t>fe</t>
@@ -1693,7 +1690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1726,6 +1723,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1736,6 +1739,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,21 +1757,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,7 +1793,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1814,49 +1809,49 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50042.820500000002</c:v>
+                  <c:v>50005.621100000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100045.64099999999</c:v>
+                  <c:v>100011.24219999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150048.4615</c:v>
+                  <c:v>150016.8633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200051.28200000001</c:v>
+                  <c:v>200022.48440000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250054.10250000001</c:v>
+                  <c:v>250028.10550000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300056.92300000001</c:v>
+                  <c:v>300033.72660000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350059.74350000004</c:v>
+                  <c:v>350039.34770000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400062.56400000007</c:v>
+                  <c:v>400044.96880000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450065.3845000001</c:v>
+                  <c:v>450050.58990000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500068.20500000013</c:v>
+                  <c:v>500056.21100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550071.02550000011</c:v>
+                  <c:v>550061.8321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600073.84600000002</c:v>
+                  <c:v>600067.45319999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650076.66649999993</c:v>
+                  <c:v>650073.07429999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700079.48699999985</c:v>
+                  <c:v>700078.69539999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,7 +2119,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -2700,8 +2695,8 @@
   </sheetPr>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2709,15 +2704,16 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2727,10 +2723,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2762,10 +2758,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>5</v>
@@ -2774,21 +2770,21 @@
         <v>6</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <f>MAX(muestra)</f>
@@ -2809,322 +2805,322 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
-        <f>MIN(muestra)</f>
-        <v>40</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <f>B6</f>
-        <v>40</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:E20" si="0">(D6+$B$9)-($B$11/10)</f>
-        <v>50042.820500000002</v>
+        <v>50005.621100000004</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F20" si="1">(D6+E6)/2</f>
-        <v>25041.410250000001</v>
+        <v>25002.810550000002</v>
       </c>
       <c r="G6" s="8">
         <f t="array" ref="G6:G20">FREQUENCY(B14:B217,E6:E19)</f>
         <v>128</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" ref="H6:H20" si="2">(1-EXP(-lambda*E6))-(1-EXP(-lambda*D6))</f>
-        <v>0.49184800948397411</v>
+        <f>_xlfn.EXPON.DIST(E6,lambda,1)-_xlfn.EXPON.DIST(D6,lambda,1)</f>
+        <v>0.49213391996992822</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" ref="I6:I20" si="3">H6*$B$4</f>
-        <v>100.33699393473071</v>
+        <f t="shared" ref="I6:I20" si="2">H6*$B$4</f>
+        <v>100.39531967386536</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" ref="K6:L6" si="4">D6</f>
-        <v>40</v>
+        <f t="shared" ref="K6:L6" si="3">D6</f>
+        <v>0</v>
       </c>
       <c r="L6" s="10">
-        <f t="shared" si="4"/>
-        <v>50042.820500000002</v>
+        <f t="shared" si="3"/>
+        <v>50005.621100000004</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" ref="M6:M10" si="5">G6</f>
+        <f t="shared" ref="M6:M10" si="4">G6</f>
         <v>128</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N10" si="6">I6</f>
-        <v>100.33699393473071</v>
+        <f t="shared" ref="N6:N10" si="5">I6</f>
+        <v>100.39531967386536</v>
       </c>
       <c r="O6" s="10">
-        <f t="shared" ref="O6:O11" si="7">((M6-N6)^2)/N6</f>
-        <v>7.6267174703770344</v>
+        <f t="shared" ref="O6:O11" si="6">((M6-N6)^2)/N6</f>
+        <v>7.5901782910150084</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6:P11" si="8">O6+P5</f>
-        <v>7.6267174703770344</v>
+        <f t="shared" ref="P6:P11" si="7">O6+P5</f>
+        <v>7.5901782910150084</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <f>B5-B6</f>
-        <v>714183</v>
+        <v>714223</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" ref="D7:D20" si="9">E6</f>
-        <v>50042.820500000002</v>
+        <f t="shared" ref="D7:D20" si="8">E6</f>
+        <v>50005.621100000004</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>100045.64099999999</v>
+        <v>100011.24219999999</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>75044.230749999988</v>
+        <v>75008.431649999999</v>
       </c>
       <c r="G7" s="8">
         <v>32</v>
       </c>
       <c r="H7" s="10">
+        <f>_xlfn.EXPON.DIST(E7,lambda,1)-_xlfn.EXPON.DIST(D7,lambda,1)</f>
+        <v>0.24993812478496052</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>0.24980239936018656</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="3"/>
-        <v>50.959689469478057</v>
+        <v>50.987377456131945</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" ref="K7:L7" si="10">D7</f>
-        <v>50042.820500000002</v>
+        <f t="shared" ref="K7:L7" si="9">D7</f>
+        <v>50005.621100000004</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="10"/>
-        <v>100045.64099999999</v>
+        <f t="shared" si="9"/>
+        <v>100011.24219999999</v>
       </c>
       <c r="M7" s="8">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="N7" s="10">
+        <v>50.987377456131945</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="6"/>
-        <v>50.959689469478057</v>
-      </c>
-      <c r="O7" s="10">
+        <v>7.07077948795874</v>
+      </c>
+      <c r="P7" s="10">
         <f t="shared" si="7"/>
-        <v>7.0540034392152062</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="8"/>
-        <v>14.680720909592241</v>
+        <v>14.660957778973749</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12">
         <f>SQRT(B4)</f>
         <v>14.282856857085701</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="9"/>
-        <v>100045.64099999999</v>
+        <f t="shared" ref="D8:D20" si="10">E7</f>
+        <v>100011.24219999999</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>150048.4615</v>
+        <f t="shared" ref="E8:E20" si="11">(D8+$B$9)-($B$11/10)</f>
+        <v>150016.8633</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>125047.05124999999</v>
+        <v>125014.05275</v>
       </c>
       <c r="G8" s="8">
         <v>8</v>
       </c>
       <c r="H8" s="10">
+        <f>_xlfn.EXPON.DIST(E8,lambda,1)-_xlfn.EXPON.DIST(D8,lambda,1)</f>
+        <v>0.12693509568460482</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>0.12687097949542347</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="3"/>
-        <v>25.881679817066388</v>
+        <v>25.894759519659381</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" ref="K8:L8" si="11">D8</f>
-        <v>100045.64099999999</v>
+        <f t="shared" ref="K8:L8" si="12">D8</f>
+        <v>100011.24219999999</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="11"/>
-        <v>150048.4615</v>
+        <f t="shared" si="12"/>
+        <v>150016.8633</v>
       </c>
       <c r="M8" s="8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N8" s="10">
+        <v>25.894759519659381</v>
+      </c>
+      <c r="O8" s="10">
         <f t="shared" si="6"/>
-        <v>25.881679817066388</v>
-      </c>
-      <c r="O8" s="10">
+        <v>12.3663020706304</v>
+      </c>
+      <c r="P8" s="10">
         <f t="shared" si="7"/>
-        <v>12.354471399852232</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="8"/>
-        <v>27.035192309444472</v>
+        <v>27.02725984960415</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <f>TRUNC((B7/B8)+B11,4)</f>
-        <v>50002.821499999998</v>
+        <v>50005.622100000001</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="9"/>
-        <v>150048.4615</v>
+        <f t="shared" si="10"/>
+        <v>150016.8633</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>200051.28200000001</v>
+        <f t="shared" si="11"/>
+        <v>200022.48440000002</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>175049.87174999999</v>
+        <v>175019.67385000002</v>
       </c>
       <c r="G9" s="8">
         <v>11</v>
       </c>
       <c r="H9" s="10">
+        <f>_xlfn.EXPON.DIST(E9,lambda,1)-_xlfn.EXPON.DIST(D9,lambda,1)</f>
+        <v>6.4466029463582264E-2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>6.4435912062314582E-2</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="3"/>
-        <v>13.144926060712175</v>
+        <v>13.151070010570782</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" ref="K9:L9" si="12">D9</f>
-        <v>150048.4615</v>
+        <f t="shared" ref="K9:L9" si="13">D9</f>
+        <v>150016.8633</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="12"/>
-        <v>200051.28200000001</v>
+        <f t="shared" si="13"/>
+        <v>200022.48440000002</v>
       </c>
       <c r="M9" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="N9" s="10">
+        <v>13.151070010570782</v>
+      </c>
+      <c r="O9" s="10">
         <f t="shared" si="6"/>
-        <v>13.144926060712175</v>
-      </c>
-      <c r="O9" s="10">
+        <v>0.35184225972926442</v>
+      </c>
+      <c r="P9" s="10">
         <f t="shared" si="7"/>
-        <v>0.34999875881180786</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="8"/>
-        <v>27.38519106825628</v>
+        <v>27.379102109333413</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14">
         <f>AVERAGE(muestra)</f>
         <v>73804.950980392154</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="9"/>
-        <v>200051.28200000001</v>
+        <f t="shared" si="10"/>
+        <v>200022.48440000002</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>250054.10250000001</v>
+        <f t="shared" si="11"/>
+        <v>250028.10550000003</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>225052.69225000002</v>
+        <v>225025.29495000001</v>
       </c>
       <c r="G10" s="8">
         <v>6</v>
       </c>
       <c r="H10" s="10">
+        <f>_xlfn.EXPON.DIST(E10,lambda,1)-_xlfn.EXPON.DIST(D10,lambda,1)</f>
+        <v>3.2740109678772722E-2</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>3.2726055870421544E-2</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="3"/>
-        <v>6.6761153975659955</v>
+        <v>6.6789823744696353</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" ref="K10:L10" si="13">D10</f>
-        <v>200051.28200000001</v>
+        <f t="shared" ref="K10:L10" si="14">D10</f>
+        <v>200022.48440000002</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="13"/>
-        <v>250054.10250000001</v>
+        <f t="shared" si="14"/>
+        <v>250028.10550000003</v>
       </c>
       <c r="M10" s="8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N10" s="10">
+        <v>6.6789823744696353</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="6"/>
-        <v>6.6761153975659955</v>
-      </c>
-      <c r="O10" s="10">
+        <v>6.9025045881638894E-2</v>
+      </c>
+      <c r="P10" s="10">
         <f t="shared" si="7"/>
-        <v>6.8472757524905448E-2</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" si="8"/>
-        <v>27.453663825781184</v>
+        <v>27.448127155215051</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>0.01</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="9"/>
-        <v>250054.10250000001</v>
+        <f t="shared" si="10"/>
+        <v>250028.10550000003</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>300056.92300000001</v>
+        <f t="shared" si="11"/>
+        <v>300033.72660000005</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>275055.51274999999</v>
+        <v>275030.91605000006</v>
       </c>
       <c r="G11" s="8">
         <v>7</v>
       </c>
       <c r="H11" s="10">
+        <f>_xlfn.EXPON.DIST(E11,lambda,1)-_xlfn.EXPON.DIST(D11,lambda,1)</f>
+        <v>1.6627591162312938E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>1.66210844008573E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="3"/>
-        <v>3.3907012177748892</v>
+        <v>3.3920285971118393</v>
       </c>
       <c r="K11" s="10">
         <f>D11</f>
-        <v>250054.10250000001</v>
+        <v>250028.10550000003</v>
       </c>
       <c r="L11" s="10">
         <f>E20</f>
-        <v>750082.30749999976</v>
+        <v>750084.31649999996</v>
       </c>
       <c r="M11" s="8">
         <f>SUM(G11:G20)</f>
@@ -3132,337 +3128,337 @@
       </c>
       <c r="N11" s="10">
         <f>SUM(I11:I20)</f>
-        <v>6.8821953016612927</v>
+        <v>6.8846228940963279</v>
       </c>
       <c r="O11" s="10">
+        <f t="shared" si="6"/>
+        <v>21.320319889143533</v>
+      </c>
+      <c r="P11" s="15">
         <f t="shared" si="7"/>
-        <v>21.336388212004628</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="8"/>
-        <v>48.790052037785813</v>
+        <v>48.768447044358581</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="11">
-        <f t="shared" si="9"/>
-        <v>300056.92300000001</v>
+        <f t="shared" si="10"/>
+        <v>300033.72660000005</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>350059.74350000004</v>
+        <f t="shared" si="11"/>
+        <v>350039.34770000004</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>325058.33325000003</v>
+        <v>325036.53715000005</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
       </c>
       <c r="H12" s="10">
+        <f>_xlfn.EXPON.DIST(E12,lambda,1)-_xlfn.EXPON.DIST(D12,lambda,1)</f>
+        <v>8.4445895439464458E-3</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>8.4416052992842827E-3</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="3"/>
-        <v>1.7220874810539937</v>
+        <v>1.7226962669650749</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="11">
-        <f t="shared" si="9"/>
-        <v>350059.74350000004</v>
+        <f t="shared" si="10"/>
+        <v>350039.34770000004</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>400062.56400000007</v>
+        <f t="shared" si="11"/>
+        <v>400044.96880000003</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>375061.15375000006</v>
+        <v>375042.15825000004</v>
       </c>
       <c r="G13" s="8">
         <v>5</v>
       </c>
       <c r="H13" s="10">
+        <f>_xlfn.EXPON.DIST(E13,lambda,1)-_xlfn.EXPON.DIST(D13,lambda,1)</f>
+        <v>4.2887205891470881E-3</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>4.2873676777207548E-3</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.87462300625503397</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="37"/>
+        <v>0.87489900018600597</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="18">
         <v>7092</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="9"/>
-        <v>400062.56400000007</v>
+        <f t="shared" si="10"/>
+        <v>400044.96880000003</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>450065.3845000001</v>
+        <f t="shared" si="11"/>
+        <v>450050.58990000002</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>425063.97425000009</v>
+        <v>425047.77935000003</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="10">
+        <f>_xlfn.EXPON.DIST(E14,lambda,1)-_xlfn.EXPON.DIST(D14,lambda,1)</f>
+        <v>2.1780957139543311E-3</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
-        <v>2.1774912415678527E-3</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.44420821327984195</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+        <v>0.44433152564668355</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="18">
         <v>58336</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="9"/>
-        <v>450065.3845000001</v>
+        <f t="shared" si="10"/>
+        <v>450050.58990000002</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>500068.20500000013</v>
+        <f t="shared" si="11"/>
+        <v>500056.21100000001</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>475066.79475000012</v>
+        <v>475053.40045000002</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="10">
+        <f>_xlfn.EXPON.DIST(E15,lambda,1)-_xlfn.EXPON.DIST(D15,lambda,1)</f>
+        <v>1.1061809321762928E-3</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
-        <v>1.1059159054036538E-3</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="3"/>
-        <v>0.22560684470234538</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
+        <v>0.22566091016396372</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="18">
         <v>2468</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="9"/>
-        <v>500068.20500000013</v>
+        <f t="shared" si="10"/>
+        <v>500056.21100000001</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>550071.02550000011</v>
+        <f t="shared" si="11"/>
+        <v>550061.8321</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>525069.61525000015</v>
+        <v>525059.02154999995</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="10">
+        <f>_xlfn.EXPON.DIST(E16,lambda,1)-_xlfn.EXPON.DIST(D16,lambda,1)</f>
+        <v>5.6179177382842393E-4</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
-        <v>5.6167848874744131E-4</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.11458241170447803</v>
-      </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+        <v>0.11460552186099848</v>
+      </c>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="18">
         <v>108796</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="9"/>
-        <v>550071.02550000011</v>
+        <f t="shared" si="10"/>
+        <v>550061.8321</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>600073.84600000002</v>
+        <f t="shared" si="11"/>
+        <v>600067.45319999999</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>575072.43575000006</v>
+        <v>575064.64265000005</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="10">
+        <f>_xlfn.EXPON.DIST(E17,lambda,1)-_xlfn.EXPON.DIST(D17,lambda,1)</f>
+        <v>2.8531498596739979E-4</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
-        <v>2.8526827689179246E-4</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="3"/>
-        <v>5.8194728485925662E-2</v>
-      </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
+        <v>5.8204257137349558E-2</v>
+      </c>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="18">
         <v>1796</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="9"/>
-        <v>600073.84600000002</v>
+        <f t="shared" si="10"/>
+        <v>600067.45319999999</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>650076.66649999993</v>
+        <f t="shared" si="11"/>
+        <v>650073.07429999998</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>625075.25624999998</v>
+        <v>625070.26374999993</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
       <c r="H18" s="10">
+        <f>_xlfn.EXPON.DIST(E18,lambda,1)-_xlfn.EXPON.DIST(D18,lambda,1)</f>
+        <v>1.4490180349702175E-4</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
-        <v>1.4488357918474026E-4</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9556250153687014E-2</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
+        <v>2.9559967913392438E-2</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="18">
         <v>18024</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="9"/>
-        <v>650076.66649999993</v>
+        <f t="shared" si="10"/>
+        <v>650073.07429999998</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>700079.48699999985</v>
+        <f t="shared" si="11"/>
+        <v>700078.69539999997</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>675078.07674999989</v>
+        <v>675075.88485000003</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="10">
+        <f>_xlfn.EXPON.DIST(E19,lambda,1)-_xlfn.EXPON.DIST(D19,lambda,1)</f>
+        <v>7.3590710931381587E-5</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="2"/>
-        <v>7.3584247593405649E-5</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="3"/>
-        <v>1.5011186509054752E-2</v>
+        <v>1.5012505030001844E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="18">
         <v>390860</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="9"/>
-        <v>700079.48699999985</v>
+        <f t="shared" si="10"/>
+        <v>700078.69539999997</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>750082.30749999976</v>
+        <f t="shared" si="11"/>
+        <v>750084.31649999996</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>725080.89724999981</v>
+        <v>725081.5059499999</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
       </c>
       <c r="H20" s="10">
+        <f>_xlfn.EXPON.DIST(E20,lambda,1)-_xlfn.EXPON.DIST(D20,lambda,1)</f>
+        <v>3.7374225887343293E-5</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="2"/>
-        <v>3.7372361480603189E-5</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="3"/>
-        <v>7.6239617420430505E-3</v>
+        <v>7.6243420810180318E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="18">
         <v>255752</v>
       </c>
       <c r="D21" s="19"/>
       <c r="G21" s="20">
-        <f t="shared" ref="G21:H21" si="14">SUM(G6:G20)</f>
+        <f t="shared" ref="G21:H21" si="15">SUM(G6:G20)</f>
         <v>204</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="14"/>
-        <v>0.9994196077510521</v>
+        <f t="shared" si="15"/>
+        <v>0.99996143102349722</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="18">
         <v>462588</v>
@@ -3470,7 +3466,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="18">
         <v>237964</v>
@@ -3478,7 +3474,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="18">
         <v>99896</v>
@@ -3486,7 +3482,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="18">
         <v>43828</v>
@@ -3494,7 +3490,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="18">
         <v>40628</v>
@@ -3502,7 +3498,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="18">
         <v>20480</v>
@@ -3510,7 +3506,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="18">
         <v>20700</v>
@@ -3518,7 +3514,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <v>21696</v>
@@ -3526,7 +3522,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="18">
         <v>14569</v>
@@ -3534,7 +3530,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="18">
         <v>16024</v>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="18">
         <v>54060</v>
@@ -3550,7 +3546,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="18">
         <v>8028</v>
@@ -3558,7 +3554,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="18">
         <v>7520</v>
@@ -3566,7 +3562,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="18">
         <v>2332</v>
@@ -3574,7 +3570,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="18">
         <v>1752</v>
@@ -3582,7 +3578,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="18">
         <v>1768</v>
@@ -3590,7 +3586,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="18">
         <v>3212</v>
@@ -3598,7 +3594,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="18">
         <v>21020</v>
@@ -3607,7 +3603,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="18">
         <v>597264</v>
@@ -3615,57 +3611,57 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="18">
         <v>276092</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+      <c r="D41" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="18">
         <v>160200</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="18">
         <v>16672</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="18">
         <v>12396</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="18">
         <v>11464</v>
@@ -3673,7 +3669,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="18">
         <v>5160</v>
@@ -3681,7 +3677,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="18">
         <v>12396</v>
@@ -3689,7 +3685,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="18">
         <v>376352</v>
@@ -3697,7 +3693,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="18">
         <v>55200</v>
@@ -3705,7 +3701,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="18">
         <v>292800</v>
@@ -3713,7 +3709,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="18">
         <v>77284</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="18">
         <v>36836</v>
@@ -3729,7 +3725,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="18">
         <v>227396</v>
@@ -3737,7 +3733,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="18">
         <v>195880</v>
@@ -3745,7 +3741,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="18">
         <v>272332</v>
@@ -3753,7 +3749,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="18">
         <v>4780</v>
@@ -3761,7 +3757,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="18">
         <v>1608</v>
@@ -3769,7 +3765,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="18">
         <v>11176</v>
@@ -3777,7 +3773,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="18">
         <v>4856</v>
@@ -3785,7 +3781,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="18">
         <v>200864</v>
@@ -3793,7 +3789,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="18">
         <v>125692</v>
@@ -3801,7 +3797,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="18">
         <v>1560</v>
@@ -3809,7 +3805,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="18">
         <v>4176</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="18">
         <v>1236</v>
@@ -3825,7 +3821,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="18">
         <v>11684</v>
@@ -3833,7 +3829,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="18">
         <v>284</v>
@@ -3841,7 +3837,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="18">
         <v>11636</v>
@@ -3849,7 +3845,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="18">
         <v>83244</v>
@@ -3857,7 +3853,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" s="18">
         <v>290636</v>
@@ -3865,7 +3861,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="18">
         <v>4120</v>
@@ -3873,7 +3869,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" s="18">
         <v>89500</v>
@@ -3881,7 +3877,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" s="18">
         <v>26328</v>
@@ -3889,7 +3885,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="18">
         <v>13644</v>
@@ -3897,7 +3893,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="18">
         <v>62728</v>
@@ -3905,7 +3901,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="18">
         <v>25736</v>
@@ -3913,7 +3909,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="18">
         <v>46196</v>
@@ -3921,7 +3917,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="18">
         <v>168304</v>
@@ -3929,7 +3925,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" s="18">
         <v>64304</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="18">
         <v>9728</v>
@@ -3945,7 +3941,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="18">
         <v>8716</v>
@@ -3953,7 +3949,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="18">
         <v>56300</v>
@@ -3961,7 +3957,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="18">
         <v>38464</v>
@@ -3969,7 +3965,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="18">
         <v>101116</v>
@@ -3977,7 +3973,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" s="18">
         <v>89056</v>
@@ -3985,7 +3981,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="18">
         <v>11496</v>
@@ -3993,7 +3989,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="18">
         <v>4184</v>
@@ -4001,7 +3997,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="18">
         <v>50152</v>
@@ -4009,7 +4005,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="18">
         <v>66276</v>
@@ -4017,7 +4013,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" s="18">
         <v>60920</v>
@@ -4025,7 +4021,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="18">
         <v>17828</v>
@@ -4033,7 +4029,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="18">
         <v>6048</v>
@@ -4041,7 +4037,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="18">
         <v>6736</v>
@@ -4049,7 +4045,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" s="18">
         <v>5316</v>
@@ -4057,7 +4053,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="18">
         <v>197416</v>
@@ -4065,7 +4061,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="18">
         <v>22272</v>
@@ -4073,7 +4069,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="18">
         <v>172</v>
@@ -4081,7 +4077,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" s="18">
         <v>7532</v>
@@ -4089,7 +4085,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98" s="18">
         <v>56188</v>
@@ -4097,7 +4093,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" s="18">
         <v>6080</v>
@@ -4105,7 +4101,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" s="18">
         <v>63812</v>
@@ -4113,7 +4109,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="18">
         <v>1160</v>
@@ -4121,7 +4117,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="18">
         <v>6856</v>
@@ -4129,7 +4125,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103" s="18">
         <v>7020</v>
@@ -4137,7 +4133,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="18">
         <v>38840</v>
@@ -4145,7 +4141,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="18">
         <v>99036</v>
@@ -4153,7 +4149,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B106" s="18">
         <v>61908</v>
@@ -4161,7 +4157,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107" s="18">
         <v>87180</v>
@@ -4169,7 +4165,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="18">
         <v>115620</v>
@@ -4177,7 +4173,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" s="18">
         <v>337965</v>
@@ -4185,7 +4181,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="18">
         <v>191868</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="18">
         <v>8200</v>
@@ -4201,7 +4197,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" s="18">
         <v>1272</v>
@@ -4209,7 +4205,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="18">
         <v>14648</v>
@@ -4217,7 +4213,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114" s="18">
         <v>4384</v>
@@ -4225,7 +4221,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="18">
         <v>2072</v>
@@ -4233,7 +4229,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" s="18">
         <v>398508</v>
@@ -4241,7 +4237,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" s="18">
         <v>248116</v>
@@ -4249,7 +4245,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B118" s="18">
         <v>247132</v>
@@ -4257,7 +4253,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="18">
         <v>109616</v>
@@ -4265,7 +4261,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="18">
         <v>99400</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B121" s="18">
         <v>117252</v>
@@ -4281,7 +4277,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="18">
         <v>168056</v>
@@ -4289,7 +4285,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" s="18">
         <v>150948</v>
@@ -4297,7 +4293,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="18">
         <v>54028</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B125" s="18">
         <v>49879</v>
@@ -4313,7 +4309,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="18">
         <v>22464</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="18">
         <v>22636</v>
@@ -4329,7 +4325,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="18">
         <v>18900</v>
@@ -4337,7 +4333,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" s="18">
         <v>53696</v>
@@ -4345,7 +4341,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" s="18">
         <v>18684</v>
@@ -4353,7 +4349,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="18">
         <v>21108</v>
@@ -4361,7 +4357,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="18">
         <v>20700</v>
@@ -4369,7 +4365,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="18">
         <v>103376</v>
@@ -4377,7 +4373,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="18">
         <v>9468</v>
@@ -4385,7 +4381,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="18">
         <v>15172</v>
@@ -4393,7 +4389,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B136" s="18">
         <v>9484</v>
@@ -4401,7 +4397,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" s="18">
         <v>25496</v>
@@ -4409,7 +4405,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B138" s="18">
         <v>9268</v>
@@ -4417,7 +4413,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B139" s="18">
         <v>23348</v>
@@ -4425,7 +4421,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B140" s="18">
         <v>7769</v>
@@ -4433,7 +4429,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="18">
         <v>21044</v>
@@ -4441,7 +4437,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B142" s="18">
         <v>17600</v>
@@ -4449,7 +4445,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B143" s="18">
         <v>9048</v>
@@ -4457,7 +4453,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="18">
         <v>5216</v>
@@ -4465,7 +4461,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="18">
         <v>5608</v>
@@ -4473,7 +4469,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B146" s="18">
         <v>7312</v>
@@ -4481,7 +4477,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="18">
         <v>12117</v>
@@ -4489,7 +4485,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148" s="18">
         <v>7100</v>
@@ -4497,7 +4493,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" s="18">
         <v>4612</v>
@@ -4505,7 +4501,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="18">
         <v>171136</v>
@@ -4513,7 +4509,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B151" s="18">
         <v>4292</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="18">
         <v>3260</v>
@@ -4529,7 +4525,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="18">
         <v>2740</v>
@@ -4537,7 +4533,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="18">
         <v>3060</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="18">
         <v>4100</v>
@@ -4553,7 +4549,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B156" s="18">
         <v>2700</v>
@@ -4561,7 +4557,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B157" s="18">
         <v>1869</v>
@@ -4569,7 +4565,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B158" s="18">
         <v>2136</v>
@@ -4577,7 +4573,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="18">
         <v>1668</v>
@@ -4585,7 +4581,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B160" s="18">
         <v>1584</v>
@@ -4593,7 +4589,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B161" s="18">
         <v>1600</v>
@@ -4601,7 +4597,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B162" s="18">
         <v>1332</v>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B163" s="18">
         <v>856</v>
@@ -4617,7 +4613,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B164" s="18">
         <v>828</v>
@@ -4625,7 +4621,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B165" s="18">
         <v>712</v>
@@ -4633,7 +4629,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B166" s="18">
         <v>40</v>
@@ -4641,7 +4637,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B167" s="18">
         <v>228</v>
@@ -4649,7 +4645,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" s="18">
         <v>7562</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B169" s="18">
         <v>11636</v>
@@ -4665,7 +4661,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B170" s="18">
         <v>33879</v>
@@ -4673,7 +4669,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B171" s="18">
         <v>296343</v>
@@ -4681,7 +4677,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" s="18">
         <v>453014</v>
@@ -4689,7 +4685,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B173" s="18">
         <v>386000</v>
@@ -4697,7 +4693,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" s="18">
         <v>141</v>
@@ -4705,7 +4701,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B175" s="18">
         <v>5746</v>
@@ -4713,7 +4709,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B176" s="18">
         <v>268982</v>
@@ -4721,7 +4717,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" s="18">
         <v>11475</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B178" s="18">
         <v>68227</v>
@@ -4737,7 +4733,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B179" s="18">
         <v>90</v>
@@ -4745,7 +4741,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B180" s="18">
         <v>373784</v>
@@ -4753,7 +4749,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B181" s="18">
         <v>319188</v>
@@ -4761,7 +4757,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B182" s="18">
         <v>140640</v>
@@ -4769,7 +4765,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B183" s="18">
         <v>160108</v>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184" s="18">
         <v>150496</v>
@@ -4785,7 +4781,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185" s="18">
         <v>180464</v>
@@ -4793,7 +4789,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186" s="18">
         <v>74131</v>
@@ -4801,7 +4797,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" s="18">
         <v>45476</v>
@@ -4809,7 +4805,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B188" s="18">
         <v>51365</v>
@@ -4817,7 +4813,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189" s="18">
         <v>3776</v>
@@ -4825,7 +4821,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B190" s="18">
         <v>30236</v>
@@ -4833,7 +4829,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191" s="18">
         <v>24186</v>
@@ -4841,7 +4837,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192" s="18">
         <v>55828</v>
@@ -4849,7 +4845,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B193" s="18">
         <v>16236</v>
@@ -4857,7 +4853,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B194" s="18">
         <v>60</v>
@@ -4865,7 +4861,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B195" s="18">
         <v>964</v>
@@ -4873,7 +4869,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196" s="18">
         <v>52</v>
@@ -4881,7 +4877,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B197" s="18">
         <v>80762</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B198" s="18">
         <v>2824</v>
@@ -4897,7 +4893,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B199" s="18">
         <v>9144</v>
@@ -4905,7 +4901,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B200" s="18">
         <v>66210</v>
@@ -4913,7 +4909,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B201" s="18">
         <v>12000</v>
@@ -4921,7 +4917,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B202" s="18">
         <v>8168</v>
@@ -4929,7 +4925,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B203" s="18">
         <v>54100</v>
@@ -4937,7 +4933,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B204" s="18">
         <v>14862</v>
@@ -4945,7 +4941,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B205" s="18">
         <v>201</v>
@@ -4953,7 +4949,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B206" s="18">
         <v>56</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B207" s="18">
         <v>74</v>
@@ -4969,7 +4965,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B208" s="18">
         <v>54810</v>
@@ -4977,7 +4973,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B209" s="18">
         <v>11567</v>
@@ -4985,7 +4981,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B210" s="18">
         <v>211686</v>
@@ -4993,7 +4989,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B211" s="18">
         <v>8156</v>
@@ -5001,7 +4997,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B212" s="18">
         <v>3343</v>
@@ -5009,7 +5005,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B213" s="18">
         <v>72516</v>
@@ -5017,7 +5013,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B214" s="18">
         <v>714223</v>
@@ -5025,7 +5021,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B215" s="18">
         <v>500368</v>
@@ -5033,7 +5029,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B216" s="18">
         <v>74510</v>
@@ -5041,7 +5037,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B217" s="18">
         <v>3201</v>
@@ -5078,37 +5074,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="F1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="22">
         <f>SUM(B15:B214)/(B4)</f>
         <v>1.9099999999999997</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="F2" s="13" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="F2" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="G2" s="14">
         <f>STDEV(B15:B214)</f>
         <v>0.55635930691591962</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5138,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>5</v>
@@ -5150,21 +5146,21 @@
         <v>6</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <f>MAX(B15:B215)</f>
@@ -5185,7 +5181,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <f>MIN(B15:B215)</f>
@@ -5242,7 +5238,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <f>B5-B6</f>
@@ -5298,7 +5294,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12">
         <f>SQRT(B4)</f>
@@ -5354,7 +5350,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <f>TRUNC((B7/B8)+B11,4)</f>
@@ -5410,7 +5406,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="22">
         <f>AVERAGE(B15:B214)</f>
@@ -5466,7 +5462,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>0.01</v>
@@ -5621,10 +5617,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="D14" s="24">
         <f t="shared" si="8"/>
@@ -5676,7 +5672,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="18">
         <v>2.62</v>
@@ -5731,7 +5727,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="18">
         <v>1.52</v>
@@ -5762,7 +5758,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="18">
         <v>2.1800000000000002</v>
@@ -5790,14 +5786,14 @@
         <f t="shared" si="3"/>
         <v>0.63098411415882794</v>
       </c>
-      <c r="K17" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" s="37"/>
+      <c r="K17" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="18">
         <v>1.21</v>
@@ -5814,26 +5810,26 @@
         <f t="shared" si="1"/>
         <v>3.6787500000000009</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="30">
         <v>1</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="31">
         <f t="shared" si="2"/>
         <v>1.0243544124054482E-3</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="31">
         <f t="shared" si="3"/>
         <v>0.20487088248108964</v>
       </c>
-      <c r="K18" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="37"/>
+      <c r="K18" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="18">
         <v>2.3199999999999998</v>
@@ -5846,31 +5842,31 @@
         <f t="shared" si="0"/>
         <v>3.9966000000000008</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="33">
         <f t="shared" si="1"/>
         <v>3.8906500000000008</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="34">
         <v>3</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="35">
         <f t="shared" si="2"/>
         <v>2.8814994705272934E-4</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="35">
         <f t="shared" si="3"/>
         <v>5.7629989410545868E-2</v>
       </c>
-      <c r="K19" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="K19" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="18">
         <v>1.51</v>
@@ -5878,44 +5874,40 @@
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="28"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="18">
         <v>1.34</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="18">
         <v>2.09</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="35"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="18">
         <v>2.34</v>
@@ -5923,7 +5915,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="18">
         <v>1.32</v>
@@ -5931,7 +5923,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="18">
         <v>1.67</v>
@@ -5939,7 +5931,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="18">
         <v>1.48</v>
@@ -5947,7 +5939,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="18">
         <v>3.12</v>
@@ -5955,7 +5947,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="18">
         <v>1.33</v>
@@ -5963,7 +5955,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="18">
         <v>2.5499999999999998</v>
@@ -5971,7 +5963,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" s="18">
         <v>2.2200000000000002</v>
@@ -5979,7 +5971,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="18">
         <v>2.0099999999999998</v>
@@ -5987,7 +5979,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32" s="18">
         <v>2.0699999999999998</v>
@@ -5995,7 +5987,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="18">
         <v>1.6</v>
@@ -6003,7 +5995,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="18">
         <v>1.96</v>
@@ -6011,7 +6003,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="18">
         <v>1.36</v>
@@ -6019,7 +6011,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="18">
         <v>1.84</v>
@@ -6027,7 +6019,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="18">
         <v>1.71</v>
@@ -6035,7 +6027,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" s="18">
         <v>2.02</v>
@@ -6043,7 +6035,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="18">
         <v>2.0299999999999998</v>
@@ -6051,7 +6043,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="18">
         <v>1.53</v>
@@ -6059,45 +6051,45 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="18">
         <v>1.76</v>
       </c>
-      <c r="D41" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="18">
         <v>2.54</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="18">
         <v>1.48</v>
@@ -6105,7 +6097,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="18">
         <v>2.11</v>
@@ -6113,7 +6105,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="18">
         <v>1.49</v>
@@ -6121,7 +6113,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="18">
         <v>1.35</v>
@@ -6129,7 +6121,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="18">
         <v>1.48</v>
@@ -6137,7 +6129,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" s="18">
         <v>1.96</v>
@@ -6145,7 +6137,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="18">
         <v>1.24</v>
@@ -6153,7 +6145,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="18">
         <v>2.1</v>
@@ -6161,7 +6153,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" s="18">
         <v>2.16</v>
@@ -6169,7 +6161,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="18">
         <v>2.2200000000000002</v>
@@ -6177,7 +6169,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="18">
         <v>1.25</v>
@@ -6185,7 +6177,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="18">
         <v>1.66</v>
@@ -6193,7 +6185,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="18">
         <v>3.86</v>
@@ -6201,7 +6193,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="18">
         <v>2.15</v>
@@ -6209,7 +6201,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="18">
         <v>1.4</v>
@@ -6217,7 +6209,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="18">
         <v>1.17</v>
@@ -6225,7 +6217,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="18">
         <v>2.81</v>
@@ -6233,7 +6225,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="18">
         <v>1.96</v>
@@ -6241,7 +6233,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="18">
         <v>1.28</v>
@@ -6249,7 +6241,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="18">
         <v>2.54</v>
@@ -6257,7 +6249,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="18">
         <v>1.77</v>
@@ -6265,7 +6257,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="18">
         <v>2.2200000000000002</v>
@@ -6273,7 +6265,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" s="18">
         <v>2.0099999999999998</v>
@@ -6281,7 +6273,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="18">
         <v>1.9</v>
@@ -6289,7 +6281,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="18">
         <v>1.32</v>
@@ -6297,7 +6289,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="18">
         <v>1.44</v>
@@ -6305,7 +6297,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" s="18">
         <v>2.5</v>
@@ -6313,7 +6305,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" s="18">
         <v>1.1399999999999999</v>
@@ -6321,7 +6313,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="18">
         <v>2.04</v>
@@ -6329,7 +6321,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="18">
         <v>1.93</v>
@@ -6337,7 +6329,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" s="18">
         <v>1.24</v>
@@ -6345,7 +6337,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" s="18">
         <v>2</v>
@@ -6353,7 +6345,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" s="18">
         <v>1.96</v>
@@ -6361,7 +6353,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B77" s="18">
         <v>1.5</v>
@@ -6369,7 +6361,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" s="18">
         <v>2.84</v>
@@ -6377,7 +6369,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B79" s="18">
         <v>1.51</v>
@@ -6385,7 +6377,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="18">
         <v>2.4</v>
@@ -6393,7 +6385,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" s="18">
         <v>2.7</v>
@@ -6401,7 +6393,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B82" s="18">
         <v>2.41</v>
@@ -6409,7 +6401,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B83" s="18">
         <v>1.28</v>
@@ -6417,7 +6409,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B84" s="18">
         <v>1.5</v>
@@ -6425,7 +6417,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B85" s="18">
         <v>1.35</v>
@@ -6433,7 +6425,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B86" s="18">
         <v>2.0099999999999998</v>
@@ -6441,7 +6433,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B87" s="18">
         <v>2.04</v>
@@ -6449,7 +6441,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B88" s="18">
         <v>1.17</v>
@@ -6457,7 +6449,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B89" s="18">
         <v>1.03</v>
@@ -6465,7 +6457,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" s="18">
         <v>2.2000000000000002</v>
@@ -6473,7 +6465,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B91" s="18">
         <v>2.02</v>
@@ -6481,7 +6473,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B92" s="18">
         <v>2.34</v>
@@ -6489,7 +6481,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B93" s="18">
         <v>3.47</v>
@@ -6497,7 +6489,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B94" s="18">
         <v>1.98</v>
@@ -6505,7 +6497,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B95" s="18">
         <v>1.35</v>
@@ -6513,7 +6505,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B96" s="18">
         <v>2.33</v>
@@ -6521,7 +6513,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B97" s="18">
         <v>2.75</v>
@@ -6529,7 +6521,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B98" s="18">
         <v>1.1499999999999999</v>
@@ -6537,7 +6529,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B99" s="18">
         <v>1.3</v>
@@ -6545,7 +6537,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B100" s="18">
         <v>1.69</v>
@@ -6553,7 +6545,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B101" s="18">
         <v>1.94</v>
@@ -6561,7 +6553,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B102" s="18">
         <v>1.34</v>
@@ -6569,7 +6561,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B103" s="18">
         <v>1.1000000000000001</v>
@@ -6577,7 +6569,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B104" s="18">
         <v>1.38</v>
@@ -6585,7 +6577,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B105" s="18">
         <v>2.0499999999999998</v>
@@ -6593,7 +6585,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B106" s="18">
         <v>1.61</v>
@@ -6601,7 +6593,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" s="18">
         <v>1.43</v>
@@ -6609,7 +6601,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B108" s="18">
         <v>2.0099999999999998</v>
@@ -6617,7 +6609,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B109" s="18">
         <v>1.94</v>
@@ -6625,7 +6617,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B110" s="18">
         <v>1.22</v>
@@ -6633,7 +6625,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111" s="18">
         <v>1.1599999999999999</v>
@@ -6641,7 +6633,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="18">
         <v>1.74</v>
@@ -6649,7 +6641,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="18">
         <v>2.38</v>
@@ -6657,7 +6649,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B114" s="18">
         <v>1.49</v>
@@ -6665,7 +6657,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B115" s="18">
         <v>2.4700000000000002</v>
@@ -6673,7 +6665,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B116" s="18">
         <v>1.17</v>
@@ -6681,7 +6673,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B117" s="18">
         <v>2.0099999999999998</v>
@@ -6689,7 +6681,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B118" s="18">
         <v>1.63</v>
@@ -6697,7 +6689,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B119" s="18">
         <v>1.6</v>
@@ -6705,7 +6697,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B120" s="18">
         <v>2.0099999999999998</v>
@@ -6713,7 +6705,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B121" s="18">
         <v>1.81</v>
@@ -6721,7 +6713,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B122" s="18">
         <v>2.3199999999999998</v>
@@ -6729,7 +6721,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B123" s="18">
         <v>2.44</v>
@@ -6737,7 +6729,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B124" s="18">
         <v>1.76</v>
@@ -6745,7 +6737,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" s="18">
         <v>1.25</v>
@@ -6753,7 +6745,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B126" s="18">
         <v>1.37</v>
@@ -6761,7 +6753,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="18">
         <v>2.06</v>
@@ -6769,7 +6761,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B128" s="18">
         <v>2</v>
@@ -6777,7 +6769,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B129" s="18">
         <v>2.4900000000000002</v>
@@ -6785,7 +6777,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B130" s="18">
         <v>1.58</v>
@@ -6793,7 +6785,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B131" s="18">
         <v>1.39</v>
@@ -6801,7 +6793,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B132" s="18">
         <v>1.46</v>
@@ -6809,7 +6801,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B133" s="18">
         <v>2.19</v>
@@ -6817,7 +6809,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B134" s="18">
         <v>2.5</v>
@@ -6825,7 +6817,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B135" s="18">
         <v>2.25</v>
@@ -6833,7 +6825,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" s="18">
         <v>2.0699999999999998</v>
@@ -6841,7 +6833,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B137" s="18">
         <v>3.06</v>
@@ -6849,7 +6841,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B138" s="18">
         <v>2.5299999999999998</v>
@@ -6857,7 +6849,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B139" s="18">
         <v>2.06</v>
@@ -6865,7 +6857,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B140" s="18">
         <v>1.5</v>
@@ -6873,7 +6865,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B141" s="18">
         <v>1.74</v>
@@ -6881,7 +6873,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B142" s="18">
         <v>1.56</v>
@@ -6889,7 +6881,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B143" s="18">
         <v>1.54</v>
@@ -6897,7 +6889,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B144" s="18">
         <v>2.2799999999999998</v>
@@ -6905,7 +6897,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B145" s="18">
         <v>2.08</v>
@@ -6913,7 +6905,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B146" s="18">
         <v>1.43</v>
@@ -6921,7 +6913,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B147" s="18">
         <v>2.66</v>
@@ -6929,7 +6921,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B148" s="18">
         <v>1.81</v>
@@ -6937,7 +6929,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B149" s="18">
         <v>1.2</v>
@@ -6945,7 +6937,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B150" s="18">
         <v>2.81</v>
@@ -6953,7 +6945,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B151" s="18">
         <v>1.6</v>
@@ -6961,7 +6953,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B152" s="18">
         <v>1.61</v>
@@ -6969,7 +6961,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B153" s="18">
         <v>3.23</v>
@@ -6977,7 +6969,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B154" s="18">
         <v>3.9</v>
@@ -6985,7 +6977,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B155" s="18">
         <v>1.3</v>
@@ -6993,7 +6985,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B156" s="18">
         <v>1.99</v>
@@ -7001,7 +6993,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B157" s="18">
         <v>1.21</v>
@@ -7009,7 +7001,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B158" s="18">
         <v>1.8</v>
@@ -7017,7 +7009,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B159" s="18">
         <v>2.16</v>
@@ -7025,7 +7017,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B160" s="18">
         <v>1.2</v>
@@ -7033,7 +7025,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B161" s="18">
         <v>1.41</v>
@@ -7041,7 +7033,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B162" s="18">
         <v>1.46</v>
@@ -7049,7 +7041,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B163" s="18">
         <v>1.65</v>
@@ -7057,7 +7049,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B164" s="18">
         <v>1.81</v>
@@ -7065,7 +7057,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B165" s="18">
         <v>1.96</v>
@@ -7073,7 +7065,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B166" s="18">
         <v>1.51</v>
@@ -7081,7 +7073,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B167" s="18">
         <v>2.2200000000000002</v>
@@ -7089,7 +7081,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B168" s="18">
         <v>1.56</v>
@@ -7097,7 +7089,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B169" s="18">
         <v>3.78</v>
@@ -7105,7 +7097,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B170" s="18">
         <v>2.04</v>
@@ -7113,7 +7105,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B171" s="18">
         <v>2.14</v>
@@ -7121,7 +7113,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B172" s="18">
         <v>2.08</v>
@@ -7129,7 +7121,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B173" s="18">
         <v>1.5</v>
@@ -7137,7 +7129,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B174" s="18">
         <v>1.05</v>
@@ -7145,7 +7137,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B175" s="18">
         <v>2.77</v>
@@ -7153,7 +7145,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B176" s="18">
         <v>3.17</v>
@@ -7161,7 +7153,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B177" s="18">
         <v>2.06</v>
@@ -7169,7 +7161,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B178" s="18">
         <v>1.7</v>
@@ -7177,7 +7169,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B179" s="18">
         <v>1.86</v>
@@ -7185,7 +7177,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B180" s="18">
         <v>1.74</v>
@@ -7193,7 +7185,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B181" s="18">
         <v>2</v>
@@ -7201,7 +7193,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B182" s="18">
         <v>1.26</v>
@@ -7209,7 +7201,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B183" s="18">
         <v>2.3199999999999998</v>
@@ -7217,7 +7209,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B184" s="18">
         <v>2.66</v>
@@ -7225,7 +7217,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B185" s="18">
         <v>1.32</v>
@@ -7233,7 +7225,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B186" s="18">
         <v>1.62</v>
@@ -7241,7 +7233,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B187" s="18">
         <v>1.42</v>
@@ -7249,7 +7241,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B188" s="18">
         <v>3.89</v>
@@ -7257,7 +7249,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B189" s="18">
         <v>1.7</v>
@@ -7265,7 +7257,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B190" s="18">
         <v>1.25</v>
@@ -7273,7 +7265,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B191" s="18">
         <v>1.91</v>
@@ -7281,7 +7273,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B192" s="18">
         <v>2.4500000000000002</v>
@@ -7289,7 +7281,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B193" s="18">
         <v>2.2799999999999998</v>
@@ -7297,7 +7289,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B194" s="18">
         <v>1.6</v>
@@ -7305,7 +7297,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B195" s="18">
         <v>2.44</v>
@@ -7313,7 +7305,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B196" s="18">
         <v>1.67</v>
@@ -7321,7 +7313,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B197" s="18">
         <v>1.1000000000000001</v>
@@ -7329,7 +7321,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B198" s="18">
         <v>2.0299999999999998</v>
@@ -7337,7 +7329,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B199" s="18">
         <v>1.78</v>
@@ -7345,7 +7337,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B200" s="18">
         <v>1.44</v>
@@ -7353,7 +7345,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B201" s="18">
         <v>1.64</v>
@@ -7361,7 +7353,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B202" s="18">
         <v>2.48</v>
@@ -7369,7 +7361,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B203" s="18">
         <v>2.13</v>
@@ -7377,7 +7369,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B204" s="18">
         <v>1.98</v>
@@ -7385,7 +7377,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B205" s="18">
         <v>2.09</v>
@@ -7393,7 +7385,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B206" s="18">
         <v>1.93</v>
@@ -7401,7 +7393,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B207" s="18">
         <v>1.83</v>
@@ -7409,7 +7401,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B208" s="18">
         <v>2.5</v>
@@ -7417,7 +7409,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B209" s="18">
         <v>1.99</v>
@@ -7425,7 +7417,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B210" s="18">
         <v>1.79</v>
@@ -7433,7 +7425,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B211" s="18">
         <v>2.09</v>
@@ -7441,7 +7433,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B212" s="18">
         <v>1.9</v>
@@ -7449,7 +7441,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B213" s="18">
         <v>1.92</v>
@@ -7457,7 +7449,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B214" s="18">
         <v>2.33</v>
